--- a/biology/Botanique/Yellowwood/Yellowwood.xlsx
+++ b/biology/Botanique/Yellowwood/Yellowwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yellowwood est en anglais le nom vernaculaire donné à différentes essences forestières. Le nom est composé de Yellow (jaune) et Wood (bois), que l'on retrouve aussi derrière le nom vernaculaire en langue française « bois jaune ».
 </t>
@@ -513,34 +525,209 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Europe et Nord de l'Afrique
-Frangula alnus (Bourdaine), Frangula caroliniana;
+          <t>Europe et Nord de l'Afrique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Frangula alnus (Bourdaine), Frangula caroliniana;
 Rhus coriaria (Sumac des corroyeurs)
-Berberis vulgaris (épine-vinette);
-Amérique
-Cladrastis kentukea spp., un arbre indigène du sud-est des États-Unis d'Amérique, Kentucky yellowwood;
+Berberis vulgaris (épine-vinette);</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellowwood</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yellowwood</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste par lieux d'origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cladrastis kentukea spp., un arbre indigène du sud-est des États-Unis d'Amérique, Kentucky yellowwood;
 Euxylophora paraensis, Brazilian yellowwood, yellowheart;
 Zanthoxylum spp., Zanthoxylum americanum, un arbuste d'Amérique du Nord, little yellowwood;
 Maclura pomifera (Oranger des Osages), un fruit de la famille des Moracées.
-Cornus sericea (Syn.: Cornus stolonifera) (Cornouiller soyeux); Amérique du nord
-Afrique
-Afrocarpus spp., un genre de conifères originaire d'Afrique, Afrocarpus falcatus (Syn.: Podocarpus falcatus ), common, smooth-barked, bastard, small-leaved yellowwood, Afrocarpus gracilior (Syn .: Podocarpus gracilior ),  East African yellowwood, Outeniqua yellowwood. D'après Farjon[1] Afrocarpus falcatus serait serai appelé yellowwood de manière inapropriée, ce nom étant plutôt attribué à Podocarpus latifolius;
+Cornus sericea (Syn.: Cornus stolonifera) (Cornouiller soyeux); Amérique du nord</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yellowwood</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yellowwood</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste par lieux d'origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Afrocarpus spp., un genre de conifères originaire d'Afrique, Afrocarpus falcatus (Syn.: Podocarpus falcatus ), common, smooth-barked, bastard, small-leaved yellowwood, Afrocarpus gracilior (Syn .: Podocarpus gracilior ),  East African yellowwood, Outeniqua yellowwood. D'après Farjon Afrocarpus falcatus serait serai appelé yellowwood de manière inapropriée, ce nom étant plutôt attribué à Podocarpus latifolius;
 Annickia spp., African yellowwood;
-Podocarpus latifolius, Real yellowwood, est un des emblèmes nationaux de l'Afrique du Sud.
-Asie et Australasie
-Maackia amurensis, Chinese yellowwood;
+Podocarpus latifolius, Real yellowwood, est un des emblèmes nationaux de l'Afrique du Sud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yellowwood</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yellowwood</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste par lieux d'origine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Asie et Australasie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maackia amurensis, Chinese yellowwood;
 Cladrastis delavayi (Syn .: Cladrastis sinensis ), Chinese yellowwood;
 Alstonia spectabilis, Milky yellowwood;
 Coprosma linariifolia, un arbuste ou petit arbre de Nouvelle-Zélande;
 Ochrosia, un genre de la famille des Apocynacaeae originaire d'Asie du Sud-Est, d'Australie et du Pacifique;
 Sarcomelicope simplicifolia (Big Yellowwood), un petit arbre de la forêt tropicale d'Australie dans la famille des Rutacées;
 Flindersia xanthoxyla, un grand arbre de la forêt tropicale d'Australie dans la famille des Rutacées;
-Zanthoxylum ovalifolium et pour le thorny yellowwood, Zanthoxylum pinnatum, Zanthoxylum brachyacanthum ou Zanthoxylum piperitum, etc.
-Sur plusieurs continents
-Podocarpus spp., un genre de conifères de la famille des Podocarpaceae, Breede River yellowwood, Podocarpus henkelii, Henkel's, Falcate, Drankensberg, Natal, long-leaved,(est) Griqualand yellowwood, Podocarpus guatemalensis, British Honduras yellowwood, Podocarpus latifolius, r real, true, broad-leaved, upright yellowwood;
-Cladrastis spp., un genre d'arbres de la famille des Fabacées;
-Autres
-Cassine crocea, yellowwood, saffron wood;
+Zanthoxylum ovalifolium et pour le thorny yellowwood, Zanthoxylum pinnatum, Zanthoxylum brachyacanthum ou Zanthoxylum piperitum, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yellowwood</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yellowwood</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste par lieux d'origine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sur plusieurs continents</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Podocarpus spp., un genre de conifères de la famille des Podocarpaceae, Breede River yellowwood, Podocarpus henkelii, Henkel's, Falcate, Drankensberg, Natal, long-leaved,(est) Griqualand yellowwood, Podocarpus guatemalensis, British Honduras yellowwood, Podocarpus latifolius, r real, true, broad-leaved, upright yellowwood;
+Cladrastis spp., un genre d'arbres de la famille des Fabacées;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yellowwood</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yellowwood</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste par lieux d'origine</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cassine crocea, yellowwood, saffron wood;
 Cotinus coggygria (Syn.: Rhus cotinus);
 Rhodosphaera spp., Rhodosphaera rhodanthema, deep yellowwood;</t>
         </is>
